--- a/doc/table/副本表.xlsx
+++ b/doc/table/副本表.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B51"/>
+      <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -418,7 +418,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>2</v>
+        <v>10002</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>3</v>
+        <v>10003</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>4</v>
+        <v>10004</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>5</v>
+        <v>10005</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>6</v>
+        <v>10006</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>7</v>
+        <v>10007</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>8</v>
+        <v>10008</v>
       </c>
       <c r="B9">
         <v>13</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>9</v>
+        <v>10009</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>10</v>
+        <v>10010</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>11</v>
+        <v>10011</v>
       </c>
       <c r="B12">
         <v>16</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>12</v>
+        <v>10012</v>
       </c>
       <c r="B13">
         <v>17</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>13</v>
+        <v>10013</v>
       </c>
       <c r="B14">
         <v>18</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>14</v>
+        <v>10014</v>
       </c>
       <c r="B15">
         <v>19</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>15</v>
+        <v>10015</v>
       </c>
       <c r="B16">
         <v>19</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>16</v>
+        <v>10016</v>
       </c>
       <c r="B17">
         <v>19</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>17</v>
+        <v>10017</v>
       </c>
       <c r="B18">
         <v>19</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>18</v>
+        <v>10018</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>19</v>
+        <v>10019</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>20</v>
+        <v>10020</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>21</v>
+        <v>10021</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>22</v>
+        <v>10022</v>
       </c>
       <c r="B23">
         <v>19</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>23</v>
+        <v>10023</v>
       </c>
       <c r="B24">
         <v>19</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>24</v>
+        <v>10024</v>
       </c>
       <c r="B25">
         <v>19</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>25</v>
+        <v>10025</v>
       </c>
       <c r="B26">
         <v>19</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>1000</v>
+        <v>10026</v>
       </c>
       <c r="B27">
         <v>19</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>1001</v>
+        <v>10027</v>
       </c>
       <c r="B28">
         <v>19</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>1002</v>
+        <v>10028</v>
       </c>
       <c r="B29">
         <v>19</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>1003</v>
+        <v>10029</v>
       </c>
       <c r="B30">
         <v>19</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>1004</v>
+        <v>10030</v>
       </c>
       <c r="B31">
         <v>19</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>1005</v>
+        <v>10031</v>
       </c>
       <c r="B32">
         <v>19</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>1006</v>
+        <v>10032</v>
       </c>
       <c r="B33">
         <v>19</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>1007</v>
+        <v>10033</v>
       </c>
       <c r="B34">
         <v>19</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>1008</v>
+        <v>10034</v>
       </c>
       <c r="B35">
         <v>19</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>1009</v>
+        <v>10035</v>
       </c>
       <c r="B36">
         <v>19</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>1010</v>
+        <v>10036</v>
       </c>
       <c r="B37">
         <v>19</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>1011</v>
+        <v>10037</v>
       </c>
       <c r="B38">
         <v>19</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>1012</v>
+        <v>10038</v>
       </c>
       <c r="B39">
         <v>19</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>1013</v>
+        <v>10039</v>
       </c>
       <c r="B40">
         <v>19</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>1014</v>
+        <v>10040</v>
       </c>
       <c r="B41">
         <v>19</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>1015</v>
+        <v>10041</v>
       </c>
       <c r="B42">
         <v>19</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>1016</v>
+        <v>10042</v>
       </c>
       <c r="B43">
         <v>19</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>1017</v>
+        <v>10043</v>
       </c>
       <c r="B44">
         <v>19</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>1018</v>
+        <v>10044</v>
       </c>
       <c r="B45">
         <v>19</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>1019</v>
+        <v>10045</v>
       </c>
       <c r="B46">
         <v>19</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>1020</v>
+        <v>10046</v>
       </c>
       <c r="B47">
         <v>19</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>1021</v>
+        <v>10047</v>
       </c>
       <c r="B48">
         <v>19</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>1022</v>
+        <v>10048</v>
       </c>
       <c r="B49">
         <v>19</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>1023</v>
+        <v>10049</v>
       </c>
       <c r="B50">
         <v>19</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>1024</v>
+        <v>10050</v>
       </c>
       <c r="B51">
         <v>19</v>

--- a/doc/table/副本表.xlsx
+++ b/doc/table/副本表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -147,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,7 +182,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A51"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -651,618 +651,6 @@
         <v>4</v>
       </c>
       <c r="E15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>10015</v>
-      </c>
-      <c r="B16">
-        <v>19</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>10016</v>
-      </c>
-      <c r="B17">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>10017</v>
-      </c>
-      <c r="B18">
-        <v>19</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>10018</v>
-      </c>
-      <c r="B19">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>10019</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>10020</v>
-      </c>
-      <c r="B21">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>10021</v>
-      </c>
-      <c r="B22">
-        <v>19</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>10022</v>
-      </c>
-      <c r="B23">
-        <v>19</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>10023</v>
-      </c>
-      <c r="B24">
-        <v>19</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>10024</v>
-      </c>
-      <c r="B25">
-        <v>19</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>10025</v>
-      </c>
-      <c r="B26">
-        <v>19</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>10026</v>
-      </c>
-      <c r="B27">
-        <v>19</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>10027</v>
-      </c>
-      <c r="B28">
-        <v>19</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>10028</v>
-      </c>
-      <c r="B29">
-        <v>19</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>10029</v>
-      </c>
-      <c r="B30">
-        <v>19</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>10030</v>
-      </c>
-      <c r="B31">
-        <v>19</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>10031</v>
-      </c>
-      <c r="B32">
-        <v>19</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>10032</v>
-      </c>
-      <c r="B33">
-        <v>19</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>10033</v>
-      </c>
-      <c r="B34">
-        <v>19</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>10034</v>
-      </c>
-      <c r="B35">
-        <v>19</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>10035</v>
-      </c>
-      <c r="B36">
-        <v>19</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>10036</v>
-      </c>
-      <c r="B37">
-        <v>19</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37">
-        <v>4</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>10037</v>
-      </c>
-      <c r="B38">
-        <v>19</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38">
-        <v>4</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <v>10038</v>
-      </c>
-      <c r="B39">
-        <v>19</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="E39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>10039</v>
-      </c>
-      <c r="B40">
-        <v>19</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>4</v>
-      </c>
-      <c r="E40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>10040</v>
-      </c>
-      <c r="B41">
-        <v>19</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>10041</v>
-      </c>
-      <c r="B42">
-        <v>19</v>
-      </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <v>10042</v>
-      </c>
-      <c r="B43">
-        <v>19</v>
-      </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-      <c r="E43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>10043</v>
-      </c>
-      <c r="B44">
-        <v>19</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44">
-        <v>4</v>
-      </c>
-      <c r="E44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <v>10044</v>
-      </c>
-      <c r="B45">
-        <v>19</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45">
-        <v>4</v>
-      </c>
-      <c r="E45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <v>10045</v>
-      </c>
-      <c r="B46">
-        <v>19</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46">
-        <v>4</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <v>10046</v>
-      </c>
-      <c r="B47">
-        <v>19</v>
-      </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-      <c r="D47">
-        <v>4</v>
-      </c>
-      <c r="E47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>10047</v>
-      </c>
-      <c r="B48">
-        <v>19</v>
-      </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-      <c r="D48">
-        <v>4</v>
-      </c>
-      <c r="E48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <v>10048</v>
-      </c>
-      <c r="B49">
-        <v>19</v>
-      </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
-      <c r="D49">
-        <v>4</v>
-      </c>
-      <c r="E49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <v>10049</v>
-      </c>
-      <c r="B50">
-        <v>19</v>
-      </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-      <c r="D50">
-        <v>4</v>
-      </c>
-      <c r="E50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51">
-        <v>10050</v>
-      </c>
-      <c r="B51">
-        <v>19</v>
-      </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="D51">
-        <v>4</v>
-      </c>
-      <c r="E51">
         <v>3</v>
       </c>
     </row>
